--- a/CRWV.xlsx
+++ b/CRWV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C366F38C-935E-4938-892F-A023334DF60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58747B51-22CF-4183-B141-BFB7819A403F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="4220" windowWidth="23100" windowHeight="13010" xr2:uid="{C836A3F2-7733-4E72-A982-21DBE906CFCD}"/>
+    <workbookView xWindow="49970" yWindow="2210" windowWidth="26400" windowHeight="18030" activeTab="1" xr2:uid="{C836A3F2-7733-4E72-A982-21DBE906CFCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Price</t>
   </si>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1FD432-C28D-479E-86E5-1BBBA11DDDBD}">
   <dimension ref="K2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -632,11 +632,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <f>361.875093+118.10504</f>
-        <v>479.98013300000002</v>
+        <v>486.59100000000001</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="11:13" x14ac:dyDescent="0.25">
@@ -645,7 +644,7 @@
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>72477.000083000006</v>
+        <v>73475.240999999995</v>
       </c>
     </row>
     <row r="5" spans="11:13" x14ac:dyDescent="0.25">
@@ -678,7 +677,7 @@
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>99287.960082999998</v>
+        <v>100286.20099999999</v>
       </c>
     </row>
     <row r="9" spans="11:13" ht="13" x14ac:dyDescent="0.3">
@@ -686,13 +685,16 @@
         <v>7</v>
       </c>
       <c r="L9" s="7">
-        <v>14210.992</v>
+        <v>16631.509999999998</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="11:13" x14ac:dyDescent="0.25">
       <c r="L10" s="3">
         <f>+L9+20000</f>
-        <v>34210.991999999998</v>
+        <v>36631.509999999995</v>
       </c>
     </row>
   </sheetData>
@@ -704,11 +706,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D71FAF7-107F-48D3-9D44-FF347A70DD91}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -809,7 +811,7 @@
         <v>981.63199999999995</v>
       </c>
       <c r="L3" s="8">
-        <v>1100</v>
+        <v>1212.788</v>
       </c>
       <c r="M3" s="8">
         <v>1350</v>
@@ -828,7 +830,7 @@
       </c>
       <c r="T3" s="7">
         <f>SUM(K3:N3)</f>
-        <v>4931.6319999999996</v>
+        <v>5044.42</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -850,7 +852,10 @@
         <f>262.394+561.402</f>
         <v>823.79600000000005</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6">
+        <f>312.667+669.913</f>
+        <v>982.57999999999993</v>
+      </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="S4" s="3">
@@ -877,7 +882,10 @@
         <f>+K3-K4</f>
         <v>157.8359999999999</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6">
+        <f>+L3-L4</f>
+        <v>230.20800000000008</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="Q5" s="3">
@@ -910,7 +918,9 @@
       <c r="K6" s="6">
         <v>10.548999999999999</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6">
+        <v>36.798999999999999</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="S6" s="3">
@@ -934,7 +944,9 @@
       <c r="K7" s="6">
         <v>174.75700000000001</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6">
+        <v>174.2</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="S7" s="3">
@@ -960,7 +972,10 @@
         <f>+K6+K7</f>
         <v>185.30600000000001</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6">
+        <f>+L6+L7</f>
+        <v>210.999</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="Q8" s="6">
@@ -995,7 +1010,10 @@
         <f>+K5-K8</f>
         <v>-27.470000000000113</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6">
+        <f>+L5-L8</f>
+        <v>19.209000000000088</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="Q9" s="6">
@@ -1029,7 +1047,9 @@
       <c r="K10" s="6">
         <v>-263.83499999999998</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6">
+        <v>-266.96600000000001</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="S10" s="3">
@@ -1055,7 +1075,10 @@
         <f>+K9+K10</f>
         <v>-291.30500000000006</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6">
+        <f>+L9+L10</f>
+        <v>-247.75699999999992</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="Q11" s="6">
@@ -1079,6 +1102,9 @@
         <v>0</v>
       </c>
       <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1101,6 +1127,10 @@
         <f>+K11-K12</f>
         <v>-291.30500000000006</v>
       </c>
+      <c r="L13" s="6">
+        <f>+L11-L12</f>
+        <v>-247.75699999999992</v>
+      </c>
       <c r="Q13" s="6">
         <f t="shared" ref="Q13:R13" si="5">+Q11-Q12</f>
         <v>15.83</v>
@@ -1126,6 +1156,10 @@
       <c r="K14" s="9">
         <f>+K13/K15</f>
         <v>-1.168524587533545</v>
+      </c>
+      <c r="L14" s="9">
+        <f>+L13/L15</f>
+        <v>-0.50916889132762411</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1145,7 +1179,9 @@
       <c r="K15" s="6">
         <v>249.29300000000001</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6">
+        <v>486.59100000000001</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="Q15" s="3">
@@ -1184,7 +1220,7 @@
       </c>
       <c r="L17" s="5">
         <f>+L3/H3-1</f>
-        <v>2.1884057971014492</v>
+        <v>2.5153275362318839</v>
       </c>
       <c r="M17" s="5">
         <f>+M3/I3-1</f>
@@ -1200,7 +1236,7 @@
         <v>36</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" ref="G18:K18" si="8">+G5/G3</f>
+        <f t="shared" ref="G18:J18" si="8">+G5/G3</f>
         <v>0.19388501409764472</v>
       </c>
       <c r="H18" s="5">
@@ -1219,7 +1255,10 @@
         <f>+K5/K3</f>
         <v>0.16078937931933751</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5">
+        <f>+L5/L3</f>
+        <v>0.18981718156841929</v>
+      </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -1238,6 +1277,9 @@
       <c r="K21" s="6">
         <v>61.167999999999999</v>
       </c>
+      <c r="L21" s="6">
+        <v>-251.251</v>
+      </c>
     </row>
     <row r="22" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
@@ -1256,7 +1298,9 @@
       <c r="K22" s="6">
         <v>-1407.3589999999999</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6">
+        <v>-2452.9920000000002</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
@@ -1272,6 +1316,10 @@
       <c r="K23" s="6">
         <f>+K21+K22</f>
         <v>-1346.191</v>
+      </c>
+      <c r="L23" s="6">
+        <f>+L21+L22</f>
+        <v>-2704.2430000000004</v>
       </c>
     </row>
   </sheetData>

--- a/CRWV.xlsx
+++ b/CRWV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58747B51-22CF-4183-B141-BFB7819A403F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9261841D-2B85-40E4-9694-9755849B0997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49970" yWindow="2210" windowWidth="26400" windowHeight="18030" activeTab="1" xr2:uid="{C836A3F2-7733-4E72-A982-21DBE906CFCD}"/>
+    <workbookView xWindow="39430" yWindow="1720" windowWidth="26400" windowHeight="18030" activeTab="1" xr2:uid="{C836A3F2-7733-4E72-A982-21DBE906CFCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -240,16 +240,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>35034</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>91965</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>39414</xdr:rowOff>
+      <xdr:rowOff>43793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>35034</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>91965</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>122621</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -264,7 +264,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7046310" y="39414"/>
+          <a:off x="7711965" y="43793"/>
           <a:ext cx="0" cy="5925207"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1271,7 +1271,10 @@
       <c r="G21" s="6">
         <v>2039.038</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6">
+        <f>191.214-G21</f>
+        <v>-1847.8240000000001</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6">
@@ -1292,7 +1295,10 @@
       <c r="G22" s="6">
         <v>-1741.9349999999999</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6">
+        <f>-3989.096-G22</f>
+        <v>-2247.1610000000001</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6">
@@ -1312,6 +1318,10 @@
       <c r="G23" s="6">
         <f>+G21+G22</f>
         <v>297.10300000000007</v>
+      </c>
+      <c r="H23" s="6">
+        <f>+H21+H22</f>
+        <v>-4094.9850000000001</v>
       </c>
       <c r="K23" s="6">
         <f>+K21+K22</f>

--- a/CRWV.xlsx
+++ b/CRWV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9261841D-2B85-40E4-9694-9755849B0997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A1122B-9CDD-46D5-BFAE-27D1A515E9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39430" yWindow="1720" windowWidth="26400" windowHeight="18030" activeTab="1" xr2:uid="{C836A3F2-7733-4E72-A982-21DBE906CFCD}"/>
+    <workbookView xWindow="50840" yWindow="3210" windowWidth="23470" windowHeight="16810" activeTab="1" xr2:uid="{C836A3F2-7733-4E72-A982-21DBE906CFCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>Price</t>
   </si>
@@ -148,13 +148,82 @@
   </si>
   <si>
     <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Revenue Backlog</t>
+  </si>
+  <si>
+    <t>Technology &amp; Infrastructure</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>ONCA</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Accrued</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>ONCL</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Derivatives</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Gross Margin W/ D&amp;A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +239,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -196,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -219,6 +295,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,16 +320,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>91965</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>48172</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>43793</xdr:rowOff>
+      <xdr:rowOff>13138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>91965</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>48172</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>96345</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -264,8 +344,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7711965" y="43793"/>
-          <a:ext cx="0" cy="5925207"/>
+          <a:off x="8276896" y="13138"/>
+          <a:ext cx="0" cy="7501759"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -611,7 +691,7 @@
   <dimension ref="K2:M10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -624,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>151</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="11:13" x14ac:dyDescent="0.25">
@@ -632,10 +712,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>486.59100000000001</v>
+        <v>498</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="11:13" x14ac:dyDescent="0.25">
@@ -644,7 +724,7 @@
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>73475.240999999995</v>
+        <v>52290</v>
       </c>
     </row>
     <row r="5" spans="11:13" x14ac:dyDescent="0.25">
@@ -652,11 +732,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <f>1276.456+624.25</f>
-        <v>1900.7059999999999</v>
+        <v>3016</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="11:13" x14ac:dyDescent="0.25">
@@ -664,11 +743,10 @@
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <f>3776.595+4935.071+20000</f>
-        <v>28711.665999999997</v>
+        <v>14035</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="11:13" x14ac:dyDescent="0.25">
@@ -677,7 +755,7 @@
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>100286.20099999999</v>
+        <v>63309</v>
       </c>
     </row>
     <row r="9" spans="11:13" ht="13" x14ac:dyDescent="0.3">
@@ -704,29 +782,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D71FAF7-107F-48D3-9D44-FF347A70DD91}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="8.7265625" style="4"/>
-    <col min="15" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="12" width="8.7265625" style="4"/>
+    <col min="13" max="13" width="8.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="8.7265625" style="4"/>
+    <col min="19" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>32</v>
       </c>
@@ -763,573 +843,1154 @@
       <c r="N2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="O2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="1">
         <v>2022</v>
       </c>
-      <c r="R2" s="1">
+      <c r="V2" s="1">
         <v>2023</v>
       </c>
-      <c r="S2" s="1">
+      <c r="W2" s="1">
         <v>2024</v>
       </c>
-      <c r="T2" s="1">
-        <f>+S2+1</f>
+      <c r="X2" s="1">
+        <f>+W2+1</f>
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="6">
+        <v>55600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C6" s="8">
         <v>38</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D6" s="8">
         <v>38</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E6" s="8">
         <v>38</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F6" s="8">
         <f>229*0.5</f>
         <v>114.5</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G6" s="8">
         <v>188.684</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H6" s="8">
         <v>345</v>
       </c>
-      <c r="I3" s="8">
-        <v>576</v>
-      </c>
-      <c r="J3" s="8">
-        <f>1151-H3</f>
+      <c r="I6" s="8">
+        <v>583.94100000000003</v>
+      </c>
+      <c r="J6" s="8">
+        <f>1151-H6</f>
         <v>806</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K6" s="8">
         <v>981.63199999999995</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L6" s="8">
         <v>1212.788</v>
       </c>
-      <c r="M3" s="8">
-        <v>1350</v>
-      </c>
-      <c r="N3" s="8">
+      <c r="M6" s="8">
+        <v>1364.6759999999999</v>
+      </c>
+      <c r="N6" s="8">
         <v>1500</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="O6" s="8">
+        <f>+N6+600</f>
+        <v>2100</v>
+      </c>
+      <c r="P6" s="8">
+        <f>+O6+600</f>
+        <v>2700</v>
+      </c>
+      <c r="Q6" s="8">
+        <f>+P6+600</f>
+        <v>3300</v>
+      </c>
+      <c r="R6" s="8">
+        <f>+Q6+600</f>
+        <v>3900</v>
+      </c>
+      <c r="U6" s="7">
         <v>15.83</v>
       </c>
-      <c r="R3" s="7">
+      <c r="V6" s="7">
         <v>228.94300000000001</v>
       </c>
-      <c r="S3" s="7">
+      <c r="W6" s="7">
         <v>1915.4259999999999</v>
       </c>
-      <c r="T3" s="7">
-        <f>SUM(K3:N3)</f>
-        <v>5044.42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="X6" s="7">
+        <f>SUM(K6:N6)</f>
+        <v>5059.0959999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6">
-        <f>59.22+92.881</f>
-        <v>152.101</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6">
-        <f>262.394+561.402</f>
-        <v>823.79600000000005</v>
-      </c>
-      <c r="L4" s="6">
-        <f>312.667+669.913</f>
-        <v>982.57999999999993</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="S4" s="3">
-        <f>493.35+960.685</f>
-        <v>1454.0349999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6">
-        <f>+G3-G4</f>
-        <v>36.582999999999998</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6">
-        <f>+K3-K4</f>
-        <v>157.8359999999999</v>
-      </c>
-      <c r="L5" s="6">
-        <f>+L3-L4</f>
-        <v>230.20800000000008</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="Q5" s="3">
-        <f t="shared" ref="Q5:R5" si="0">+Q3-Q4</f>
-        <v>15.83</v>
-      </c>
-      <c r="R5" s="3">
-        <f t="shared" si="0"/>
-        <v>228.94300000000001</v>
-      </c>
-      <c r="S5" s="3">
-        <f>+S3-S4</f>
-        <v>461.39100000000008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
-        <v>4.05</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6">
-        <v>10.548999999999999</v>
-      </c>
-      <c r="L6" s="6">
-        <v>36.798999999999999</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="S6" s="3">
-        <v>18.388999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
-        <v>15.686</v>
+        <f>59.22+92.881</f>
+        <v>152.101</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="I7" s="6">
+        <v>143.13399999999999</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6">
-        <v>174.75700000000001</v>
+        <f>262.394</f>
+        <v>262.39400000000001</v>
       </c>
       <c r="L7" s="6">
-        <v>174.2</v>
-      </c>
-      <c r="M7" s="6"/>
+        <f>312.667</f>
+        <v>312.66699999999997</v>
+      </c>
+      <c r="M7" s="6">
+        <v>368.82400000000001</v>
+      </c>
       <c r="N7" s="6"/>
-      <c r="S7" s="3">
-        <v>118.64400000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="W7" s="3">
+        <f>493.35+960.685</f>
+        <v>1454.0349999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6">
-        <f>+G6+G7</f>
-        <v>19.736000000000001</v>
-      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6">
+        <v>285.50900000000001</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6">
-        <f>+K6+K7</f>
-        <v>185.30600000000001</v>
+        <v>561.40200000000004</v>
       </c>
       <c r="L8" s="6">
-        <f>+L6+L7</f>
-        <v>210.999</v>
-      </c>
-      <c r="M8" s="6"/>
+        <v>669.91300000000001</v>
+      </c>
+      <c r="M8" s="6">
+        <v>747.47900000000004</v>
+      </c>
       <c r="N8" s="6"/>
-      <c r="Q8" s="6">
-        <f t="shared" ref="Q8:R8" si="1">+Q6+Q7</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="6">
-        <f>+S6+S7</f>
-        <v>137.03300000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
-        <f>+G5-G8</f>
-        <v>16.846999999999998</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6">
-        <f>+K5-K8</f>
-        <v>-27.470000000000113</v>
-      </c>
-      <c r="L9" s="6">
-        <f>+L5-L8</f>
-        <v>19.209000000000088</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="Q9" s="6">
-        <f t="shared" ref="Q9:R9" si="2">+Q5-Q8</f>
-        <v>15.83</v>
-      </c>
-      <c r="R9" s="6">
-        <f t="shared" si="2"/>
-        <v>228.94300000000001</v>
-      </c>
-      <c r="S9" s="6">
-        <f>+S5-S8</f>
-        <v>324.35800000000006</v>
-      </c>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:24" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13">
+        <v>630.47900000000004</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6">
-        <v>-40.655999999999999</v>
+        <f>+G6-G7</f>
+        <v>36.582999999999998</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="I10" s="6">
+        <f>+I6-I7-I8</f>
+        <v>155.298</v>
+      </c>
+      <c r="J10" s="6">
+        <f>+J6-J7-J8</f>
+        <v>806</v>
+      </c>
       <c r="K10" s="6">
-        <v>-263.83499999999998</v>
+        <f>+K6-K7-K8</f>
+        <v>157.8359999999999</v>
       </c>
       <c r="L10" s="6">
-        <v>-266.96600000000001</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="S10" s="3">
-        <v>-360.82400000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f>+L6-L7-L8</f>
+        <v>230.20800000000008</v>
+      </c>
+      <c r="M10" s="6">
+        <f>+M6-M7-M8</f>
+        <v>248.37299999999982</v>
+      </c>
+      <c r="N10" s="6">
+        <f>+N6*0.64</f>
+        <v>960</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" ref="O10:R10" si="0">+O6*0.64</f>
+        <v>1344</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="0"/>
+        <v>1728</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="0"/>
+        <v>2112</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" si="0"/>
+        <v>2496</v>
+      </c>
+      <c r="U10" s="3">
+        <f>+U6-U7</f>
+        <v>15.83</v>
+      </c>
+      <c r="V10" s="3">
+        <f>+V6-V7</f>
+        <v>228.94300000000001</v>
+      </c>
+      <c r="W10" s="3">
+        <f>+W6-W7</f>
+        <v>461.39100000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6">
-        <f>+G9+G10</f>
-        <v>-23.809000000000001</v>
+        <v>4.05</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6">
+        <v>4.5540000000000003</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6">
-        <f>+K9+K10</f>
-        <v>-291.30500000000006</v>
+        <v>10.548999999999999</v>
       </c>
       <c r="L11" s="6">
-        <f>+L9+L10</f>
-        <v>-247.75699999999992</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+        <v>36.798999999999999</v>
+      </c>
+      <c r="M11" s="6">
+        <v>44.645000000000003</v>
+      </c>
+      <c r="N11" s="6">
+        <f>+M11</f>
+        <v>44.645000000000003</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" ref="O11:R11" si="1">+N11</f>
+        <v>44.645000000000003</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="1"/>
+        <v>44.645000000000003</v>
+      </c>
       <c r="Q11" s="6">
-        <f t="shared" ref="Q11:R11" si="3">+Q9+Q10</f>
-        <v>15.83</v>
+        <f t="shared" si="1"/>
+        <v>44.645000000000003</v>
       </c>
       <c r="R11" s="6">
-        <f t="shared" si="3"/>
-        <v>228.94300000000001</v>
-      </c>
-      <c r="S11" s="6">
-        <f>+S9+S10</f>
-        <v>-36.465999999999951</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>44.645000000000003</v>
+      </c>
+      <c r="W11" s="3">
+        <v>18.388999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
+        <v>15.686</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
+        <v>33.628</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6">
+        <v>174.75700000000001</v>
+      </c>
+      <c r="L12" s="6">
+        <v>174.2</v>
+      </c>
+      <c r="M12" s="6">
+        <v>151.87799999999999</v>
+      </c>
+      <c r="N12" s="6">
+        <f>+M12</f>
+        <v>151.87799999999999</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" ref="O12:R12" si="2">+N12</f>
+        <v>151.87799999999999</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="2"/>
+        <v>151.87799999999999</v>
+      </c>
+      <c r="Q12" s="6">
+        <f t="shared" si="2"/>
+        <v>151.87799999999999</v>
+      </c>
+      <c r="R12" s="6">
+        <f t="shared" si="2"/>
+        <v>151.87799999999999</v>
+      </c>
+      <c r="W12" s="3">
+        <v>118.64400000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
-        <f t="shared" ref="G13" si="4">+G11-G12</f>
-        <v>-23.809000000000001</v>
+        <f>+G11+G12</f>
+        <v>19.736000000000001</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="I13" s="6">
+        <f t="shared" ref="I13:J13" si="3">+I11+I12</f>
+        <v>38.182000000000002</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K13" s="6">
-        <f>+K11-K12</f>
-        <v>-291.30500000000006</v>
+        <f>+K11+K12</f>
+        <v>185.30600000000001</v>
       </c>
       <c r="L13" s="6">
-        <f>+L11-L12</f>
-        <v>-247.75699999999992</v>
+        <f>+L11+L12</f>
+        <v>210.999</v>
+      </c>
+      <c r="M13" s="6">
+        <f>+M11+M12</f>
+        <v>196.523</v>
+      </c>
+      <c r="N13" s="6">
+        <f>+N11+N12</f>
+        <v>196.523</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" ref="O13:R13" si="4">+O11+O12</f>
+        <v>196.523</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="4"/>
+        <v>196.523</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" ref="Q13:R13" si="5">+Q11-Q12</f>
+        <f t="shared" si="4"/>
+        <v>196.523</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" si="4"/>
+        <v>196.523</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" ref="U13:V13" si="5">+U11+U12</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
+        <f>+W11+W12</f>
+        <v>137.03300000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
+        <f>+G10-G13</f>
+        <v>16.846999999999998</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6">
+        <f t="shared" ref="I14:J14" si="6">+I10-I13</f>
+        <v>117.116</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="6"/>
+        <v>806</v>
+      </c>
+      <c r="K14" s="6">
+        <f>+K10-K13</f>
+        <v>-27.470000000000113</v>
+      </c>
+      <c r="L14" s="6">
+        <f>+L10-L13</f>
+        <v>19.209000000000088</v>
+      </c>
+      <c r="M14" s="6">
+        <f>+M10-M13</f>
+        <v>51.849999999999824</v>
+      </c>
+      <c r="N14" s="6">
+        <f>+N10-N13</f>
+        <v>763.47699999999998</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" ref="O14:R14" si="7">+O10-O13</f>
+        <v>1147.4770000000001</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="7"/>
+        <v>1531.4770000000001</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="7"/>
+        <v>1915.4770000000001</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" si="7"/>
+        <v>2299.4769999999999</v>
+      </c>
+      <c r="U14" s="6">
+        <f t="shared" ref="U14:V14" si="8">+U10-U13</f>
         <v>15.83</v>
       </c>
-      <c r="R13" s="6">
-        <f t="shared" si="5"/>
+      <c r="V14" s="6">
+        <f t="shared" si="8"/>
         <v>228.94300000000001</v>
       </c>
-      <c r="S13" s="6">
-        <f>+S11-S12</f>
-        <v>-36.465999999999951</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="G14" s="9">
-        <f>+G13/G15</f>
-        <v>-0.11379452080983425</v>
-      </c>
-      <c r="K14" s="9">
-        <f>+K13/K15</f>
-        <v>-1.168524587533545</v>
-      </c>
-      <c r="L14" s="9">
-        <f>+L13/L15</f>
-        <v>-0.50916889132762411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="6">
+        <f>+W10-W13</f>
+        <v>324.35800000000006</v>
+      </c>
+      <c r="X14" s="11"/>
+    </row>
+    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6">
-        <v>209.22800000000001</v>
+        <v>-40.655999999999999</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6">
+        <v>-104.375</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6">
+        <v>-263.83499999999998</v>
+      </c>
+      <c r="L15" s="6">
+        <v>-266.96600000000001</v>
+      </c>
+      <c r="M15" s="6">
+        <v>-310.55500000000001</v>
+      </c>
+      <c r="N15" s="6">
+        <v>-310.55500000000001</v>
+      </c>
+      <c r="O15" s="6">
+        <v>-310.55500000000001</v>
+      </c>
+      <c r="P15" s="6">
+        <v>-310.55500000000001</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>-310.55500000000001</v>
+      </c>
+      <c r="R15" s="6">
+        <v>-310.55500000000001</v>
+      </c>
+      <c r="W15" s="3">
+        <v>-360.82400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
+        <f>+G14+G15</f>
+        <v>-23.809000000000001</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6">
+        <f t="shared" ref="I16:J16" si="9">+I14+I15</f>
+        <v>12.741</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="9"/>
+        <v>806</v>
+      </c>
+      <c r="K16" s="6">
+        <f>+K14+K15</f>
+        <v>-291.30500000000006</v>
+      </c>
+      <c r="L16" s="6">
+        <f>+L14+L15</f>
+        <v>-247.75699999999992</v>
+      </c>
+      <c r="M16" s="6">
+        <f>+M14+M15</f>
+        <v>-258.70500000000015</v>
+      </c>
+      <c r="N16" s="6">
+        <f>+N14+N15</f>
+        <v>452.92199999999997</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" ref="O16:R16" si="10">+O14+O15</f>
+        <v>836.92200000000003</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="10"/>
+        <v>1220.922</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" si="10"/>
+        <v>1604.922</v>
+      </c>
+      <c r="R16" s="6">
+        <f t="shared" si="10"/>
+        <v>1988.9219999999998</v>
+      </c>
+      <c r="U16" s="6">
+        <f t="shared" ref="U16:V16" si="11">+U14+U15</f>
+        <v>15.83</v>
+      </c>
+      <c r="V16" s="6">
+        <f t="shared" si="11"/>
+        <v>228.94300000000001</v>
+      </c>
+      <c r="W16" s="6">
+        <f>+W14+W15</f>
+        <v>-36.465999999999951</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
+        <f t="shared" ref="G18" si="12">+G16-G17</f>
+        <v>-23.809000000000001</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6">
+        <f>+I16-I17</f>
+        <v>12.741</v>
+      </c>
+      <c r="J18" s="6">
+        <f>+J16-J17</f>
+        <v>806</v>
+      </c>
+      <c r="K18" s="6">
+        <f>+K16-K17</f>
+        <v>-291.30500000000006</v>
+      </c>
+      <c r="L18" s="6">
+        <f>+L16-L17</f>
+        <v>-247.75699999999992</v>
+      </c>
+      <c r="M18" s="6">
+        <f>+M16-M17</f>
+        <v>-258.70500000000015</v>
+      </c>
+      <c r="N18" s="6">
+        <f>+N16-N17</f>
+        <v>452.92199999999997</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" ref="O18:R18" si="13">+O16-O17</f>
+        <v>836.92200000000003</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="13"/>
+        <v>1220.922</v>
+      </c>
+      <c r="Q18" s="6">
+        <f t="shared" si="13"/>
+        <v>1604.922</v>
+      </c>
+      <c r="R18" s="6">
+        <f t="shared" si="13"/>
+        <v>1988.9219999999998</v>
+      </c>
+      <c r="U18" s="6">
+        <f t="shared" ref="U18:V18" si="14">+U16-U17</f>
+        <v>15.83</v>
+      </c>
+      <c r="V18" s="6">
+        <f t="shared" si="14"/>
+        <v>228.94300000000001</v>
+      </c>
+      <c r="W18" s="6">
+        <f>+W16-W17</f>
+        <v>-36.465999999999951</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="G19" s="9">
+        <f>+G18/G20</f>
+        <v>-0.11379452080983425</v>
+      </c>
+      <c r="I19" s="9">
+        <f>+I18/I20</f>
+        <v>5.9591405292648468E-2</v>
+      </c>
+      <c r="J19" s="9" t="e">
+        <f>+J18/J20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="9">
+        <f>+K18/K20</f>
+        <v>-1.168524587533545</v>
+      </c>
+      <c r="L19" s="9">
+        <f>+L18/L20</f>
+        <v>-0.50916889132762411</v>
+      </c>
+      <c r="M19" s="9">
+        <f>+M18/M20</f>
+        <v>-0.51960689796459458</v>
+      </c>
+      <c r="N19" s="9">
+        <f>+N18/N20</f>
+        <v>0.90969017003892449</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" ref="O19:R19" si="15">+O18/O20</f>
+        <v>1.6809510610862728</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="15"/>
+        <v>2.452211952133621</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="15"/>
+        <v>3.2234728431809692</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" si="15"/>
+        <v>3.9947337342283169</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
+        <v>209.22800000000001</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6">
+        <v>213.80600000000001</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6">
         <v>249.29300000000001</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L20" s="6">
         <v>486.59100000000001</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="Q15" s="3">
+      <c r="M20" s="6">
+        <v>497.88600000000002</v>
+      </c>
+      <c r="N20" s="6">
+        <f>+M20</f>
+        <v>497.88600000000002</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" ref="O20:R20" si="16">+N20</f>
+        <v>497.88600000000002</v>
+      </c>
+      <c r="P20" s="6">
+        <f t="shared" si="16"/>
+        <v>497.88600000000002</v>
+      </c>
+      <c r="Q20" s="6">
+        <f t="shared" si="16"/>
+        <v>497.88600000000002</v>
+      </c>
+      <c r="R20" s="6">
+        <f t="shared" si="16"/>
+        <v>497.88600000000002</v>
+      </c>
+      <c r="U20" s="3">
         <v>180.63200000000001</v>
       </c>
-      <c r="R15" s="3">
+      <c r="V20" s="3">
         <v>192.16399999999999</v>
       </c>
-      <c r="S15" s="3">
+      <c r="W20" s="3">
         <v>217.85400000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="5">
-        <f t="shared" ref="G17" si="6">+G3/C3-1</f>
+      <c r="G22" s="5">
+        <f>+G6/C6-1</f>
         <v>3.9653684210526317</v>
       </c>
-      <c r="H17" s="5">
-        <f t="shared" ref="H17:J17" si="7">+H3/D3-1</f>
+      <c r="H22" s="5">
+        <f>+H6/D6-1</f>
         <v>8.0789473684210531</v>
       </c>
-      <c r="I17" s="5">
-        <f t="shared" si="7"/>
-        <v>14.157894736842104</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="7"/>
+      <c r="I22" s="5">
+        <f>+I6/E6-1</f>
+        <v>14.366868421052633</v>
+      </c>
+      <c r="J22" s="5">
+        <f>+J6/F6-1</f>
         <v>6.0393013100436681</v>
       </c>
-      <c r="K17" s="5">
-        <f>+K3/G3-1</f>
+      <c r="K22" s="5">
+        <f>+K6/G6-1</f>
         <v>4.2025184965338873</v>
       </c>
-      <c r="L17" s="5">
-        <f>+L3/H3-1</f>
+      <c r="L22" s="5">
+        <f>+L6/H6-1</f>
         <v>2.5153275362318839</v>
       </c>
-      <c r="M17" s="5">
-        <f>+M3/I3-1</f>
-        <v>1.34375</v>
-      </c>
-      <c r="N17" s="5">
-        <f>+N3/J3-1</f>
+      <c r="M22" s="5">
+        <f>+M6/I6-1</f>
+        <v>1.3370100746479521</v>
+      </c>
+      <c r="N22" s="5">
+        <f>+N6/J6-1</f>
         <v>0.86104218362282881</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:J18" si="8">+G5/G3</f>
+      <c r="G23" s="5">
+        <f>+G10/G6</f>
         <v>0.19388501409764472</v>
       </c>
-      <c r="H18" s="5">
-        <f t="shared" si="8"/>
+      <c r="H23" s="5">
+        <f>+H10/H6</f>
         <v>0</v>
       </c>
-      <c r="I18" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="5">
-        <f>+K5/K3</f>
+      <c r="I23" s="5">
+        <f>+I10/I6</f>
+        <v>0.26594810092115467</v>
+      </c>
+      <c r="J23" s="5">
+        <f>+J10/J6</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <f>+K10/K6</f>
         <v>0.16078937931933751</v>
       </c>
-      <c r="L18" s="5">
-        <f>+L5/L3</f>
+      <c r="L23" s="5">
+        <f>+L10/L6</f>
         <v>0.18981718156841929</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="M23" s="5">
+        <f>+M10/M6</f>
+        <v>0.18200144210054242</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" ref="N23" si="17">+N10/N6</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" s="5">
+        <f>(M9+M10)/M6</f>
+        <v>0.64400048070018079</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" ref="N24" si="18">(N9+N10)/N6</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="6">
+        <f>1894.399+596.777+47.449+477.515</f>
+        <v>3016.14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="6">
+        <v>1659.229</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" s="6">
+        <v>533.42899999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="6">
+        <v>20659.181</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" s="6">
+        <v>4677.0569999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="6">
+        <f>829.979+200.001</f>
+        <v>1029.98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" s="6">
+        <v>1335.482</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" s="6">
+        <f>SUM(M26:M32)</f>
+        <v>32910.498</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M35" s="6">
+        <v>1156.9780000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" s="6">
+        <v>3172.2739999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37" s="6">
+        <f>3712.177+10322.757</f>
+        <v>14034.933999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="6">
+        <f>1107.58+4228.222</f>
+        <v>5335.8019999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M39" s="6">
+        <f>345.472+48.99+4378.869+0.012</f>
+        <v>4773.3429999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M40" s="6">
+        <v>171.40100000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M41" s="6">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" s="6">
+        <v>117.633</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M43" s="6">
+        <v>268.40899999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" s="6">
+        <v>3878.0140000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M45" s="6">
+        <f t="array" ref="M45">SUM(M35:M44)</f>
+        <v>32910.498000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6">
         <v>2039.038</v>
       </c>
-      <c r="H21" s="6">
-        <f>191.214-G21</f>
+      <c r="H47" s="6">
+        <f>191.214-G47</f>
         <v>-1847.8240000000001</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6">
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6">
         <v>61.167999999999999</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L47" s="6">
         <v>-251.251</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="M47" s="6">
+        <v>1689.134</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6">
         <v>-1741.9349999999999</v>
       </c>
-      <c r="H22" s="6">
-        <f>-3989.096-G22</f>
+      <c r="H48" s="6">
+        <f>-3989.096-G48</f>
         <v>-2247.1610000000001</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6">
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6">
         <v>-1407.3589999999999</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L48" s="6">
         <v>-2452.9920000000002</v>
       </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="M48" s="6">
+        <v>-3278.7860000000001</v>
+      </c>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="G23" s="6">
-        <f>+G21+G22</f>
+      <c r="C49" s="6"/>
+      <c r="G49" s="6">
+        <f>+G47+G48</f>
         <v>297.10300000000007</v>
       </c>
-      <c r="H23" s="6">
-        <f>+H21+H22</f>
+      <c r="H49" s="6">
+        <f>+H47+H48</f>
         <v>-4094.9850000000001</v>
       </c>
-      <c r="K23" s="6">
-        <f>+K21+K22</f>
+      <c r="K49" s="6">
+        <f>+K47+K48</f>
         <v>-1346.191</v>
       </c>
-      <c r="L23" s="6">
-        <f>+L21+L22</f>
+      <c r="L49" s="6">
+        <f>+L47+L48</f>
         <v>-2704.2430000000004</v>
+      </c>
+      <c r="M49" s="6">
+        <f>+M47+M48</f>
+        <v>-1589.652</v>
       </c>
     </row>
   </sheetData>

--- a/CRWV.xlsx
+++ b/CRWV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A1122B-9CDD-46D5-BFAE-27D1A515E9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698A2266-C2BB-4E41-8AF9-267B4BDCF142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50840" yWindow="3210" windowWidth="23470" windowHeight="16810" activeTab="1" xr2:uid="{C836A3F2-7733-4E72-A982-21DBE906CFCD}"/>
+    <workbookView xWindow="50300" yWindow="3270" windowWidth="23470" windowHeight="16810" activeTab="1" xr2:uid="{C836A3F2-7733-4E72-A982-21DBE906CFCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={63BFD14A-9CEB-4F1A-A11A-74C580922CA4}</author>
+    <author>tc={AA78B679-7A92-4769-99E5-32333F4EBBA8}</author>
+  </authors>
+  <commentList>
+    <comment ref="Z6" authorId="0" shapeId="0" xr:uid="{63BFD14A-9CEB-4F1A-A11A-74C580922CA4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consensus 18.6B</t>
+      </text>
+    </comment>
+    <comment ref="AA6" authorId="1" shapeId="0" xr:uid="{AA78B679-7A92-4769-99E5-32333F4EBBA8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consensus 30.3B</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
   <si>
     <t>Price</t>
   </si>
@@ -217,6 +244,105 @@
   </si>
   <si>
     <t>Gross Margin W/ D&amp;A</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>6/1/2030 9.25%</t>
+  </si>
+  <si>
+    <t>2/1/2031 9%</t>
+  </si>
+  <si>
+    <t>6/1/2030 9.25% $2000m</t>
+  </si>
+  <si>
+    <t>2/1/2031 9% $1750m</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>Non-cash Lease Expense</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Amortization of DD</t>
+  </si>
+  <si>
+    <t>FV adjustments</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>ONC</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Redemption</t>
+  </si>
+  <si>
+    <t>ESOP</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>IPO</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>Acquisition</t>
+  </si>
+  <si>
+    <t>NI+D&amp;A</t>
+  </si>
+  <si>
+    <t>NI+SBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/1/2028 Revolver 7% </t>
+  </si>
+  <si>
+    <t>8/1/2030 DDTL 3.0 9%</t>
+  </si>
+  <si>
+    <t>9/1/2030 DDTL 2.1 9%</t>
+  </si>
+  <si>
+    <t>8/1/2030 DDTL 2.0 10%</t>
+  </si>
+  <si>
+    <t>3/1/2028 DDTL 1.0 15%</t>
+  </si>
+  <si>
+    <t>1/1/2029 $270m 12%</t>
+  </si>
+  <si>
+    <t>OEM 3/2026-8/2028</t>
+  </si>
+  <si>
+    <t>Change</t>
   </si>
 </sst>
 </file>
@@ -272,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -294,7 +420,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -328,7 +453,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>48172</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>96345</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -368,7 +493,63 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>20053</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>20053</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>76868</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D9157E-7B5C-208D-933A-FE0FF4C6C001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14628395" y="50132"/>
+          <a:ext cx="0" cy="16245973"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{B2761A0D-7C45-4C6A-9132-DB7D2A889108}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,28 +867,42 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Z6" dT="2025-11-17T15:40:17.48" personId="{B2761A0D-7C45-4C6A-9132-DB7D2A889108}" id="{63BFD14A-9CEB-4F1A-A11A-74C580922CA4}">
+    <text>Consensus 18.6B</text>
+  </threadedComment>
+  <threadedComment ref="AA6" dT="2025-11-17T15:40:09.37" personId="{B2761A0D-7C45-4C6A-9132-DB7D2A889108}" id="{AA78B679-7A92-4769-99E5-32333F4EBBA8}">
+    <text>Consensus 30.3B</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1FD432-C28D-479E-86E5-1BBBA11DDDBD}">
-  <dimension ref="K2:M10"/>
+  <dimension ref="J2:M19"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="8" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="3" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="10:13" x14ac:dyDescent="0.25">
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="10:13" x14ac:dyDescent="0.25">
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
@@ -718,16 +913,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="10:13" x14ac:dyDescent="0.25">
       <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>52290</v>
-      </c>
-    </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.25">
+        <v>38346</v>
+      </c>
+    </row>
+    <row r="5" spans="10:13" x14ac:dyDescent="0.25">
       <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
@@ -738,7 +933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="10:13" x14ac:dyDescent="0.25">
       <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
@@ -749,16 +944,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="10:13" x14ac:dyDescent="0.25">
       <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>63309</v>
-      </c>
-    </row>
-    <row r="9" spans="11:13" ht="13" x14ac:dyDescent="0.3">
+        <v>49365</v>
+      </c>
+    </row>
+    <row r="9" spans="10:13" ht="13" x14ac:dyDescent="0.3">
       <c r="K9" s="10" t="s">
         <v>7</v>
       </c>
@@ -769,10 +964,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="10:13" x14ac:dyDescent="0.25">
       <c r="L10" s="3">
         <f>+L9+20000</f>
         <v>36631.509999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
+        <v>2029</v>
+      </c>
+      <c r="K15" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1750</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
@@ -781,32 +1022,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D71FAF7-107F-48D3-9D44-FF347A70DD91}">
-  <dimension ref="A1:X49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D71FAF7-107F-48D3-9D44-FF347A70DD91}">
+  <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18:R18"/>
+      <selection pane="bottomRight" activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="1" customWidth="1"/>
     <col min="3" max="12" width="8.7265625" style="4"/>
     <col min="13" max="13" width="8.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="8.7265625" style="4"/>
     <col min="19" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>32</v>
       </c>
@@ -868,8 +1109,20 @@
         <f>+W2+1</f>
         <v>2025</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2" s="1">
+        <v>2026</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>2027</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>2028</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
@@ -877,7 +1130,7 @@
         <v>55600</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -928,12 +1181,10 @@
         <v>2700</v>
       </c>
       <c r="Q6" s="8">
-        <f>+P6+600</f>
-        <v>3300</v>
+        <v>3170</v>
       </c>
       <c r="R6" s="8">
-        <f>+Q6+600</f>
-        <v>3900</v>
+        <v>3590</v>
       </c>
       <c r="U6" s="7">
         <v>15.83</v>
@@ -945,11 +1196,23 @@
         <v>1915.4259999999999</v>
       </c>
       <c r="X6" s="7">
-        <f>SUM(K6:N6)</f>
+        <f t="shared" ref="X6:X12" si="0">SUM(K6:N6)</f>
         <v>5059.0959999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y6" s="7">
+        <f>SUM(O6:R6)</f>
+        <v>11560</v>
+      </c>
+      <c r="Z6" s="7">
+        <f>+Y6*1.5</f>
+        <v>17340</v>
+      </c>
+      <c r="AA6" s="7">
+        <f>+Z6*1.3</f>
+        <v>22542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
@@ -986,8 +1249,12 @@
         <f>493.35+960.685</f>
         <v>1454.0349999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="3">
+        <f t="shared" si="0"/>
+        <v>943.88499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
@@ -1015,31 +1282,45 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:24" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="X8" s="3">
+        <f t="shared" si="0"/>
+        <v>1978.7940000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12">
+        <f>+K53</f>
+        <v>443.49700000000001</v>
+      </c>
+      <c r="L9" s="12">
+        <f>+L53</f>
+        <v>559.48099999999999</v>
+      </c>
+      <c r="M9" s="12">
         <v>630.47900000000004</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-    </row>
-    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="X9" s="3">
+        <f t="shared" si="0"/>
+        <v>1633.4570000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1077,20 +1358,20 @@
         <v>960</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" ref="O10:R10" si="0">+O6*0.64</f>
+        <f t="shared" ref="O10:R10" si="1">+O6*0.64</f>
         <v>1344</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1728</v>
       </c>
       <c r="Q10" s="6">
-        <f t="shared" si="0"/>
-        <v>2112</v>
+        <f t="shared" si="1"/>
+        <v>2028.8</v>
       </c>
       <c r="R10" s="6">
-        <f t="shared" si="0"/>
-        <v>2496</v>
+        <f t="shared" si="1"/>
+        <v>2297.6</v>
       </c>
       <c r="U10" s="3">
         <f>+U6-U7</f>
@@ -1104,8 +1385,24 @@
         <f>+W6-W7</f>
         <v>461.39100000000008</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="3">
+        <f t="shared" si="0"/>
+        <v>1596.4169999999999</v>
+      </c>
+      <c r="Y10" s="3">
+        <f>SUM(O10:R10)</f>
+        <v>7398.4</v>
+      </c>
+      <c r="Z10" s="3">
+        <f>+Z6*0.64</f>
+        <v>11097.6</v>
+      </c>
+      <c r="AA10" s="3">
+        <f>+AA6*0.24</f>
+        <v>5410.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1131,30 +1428,46 @@
         <v>44.645000000000003</v>
       </c>
       <c r="N11" s="6">
-        <f>+M11</f>
-        <v>44.645000000000003</v>
+        <f>+M11+5</f>
+        <v>49.645000000000003</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" ref="O11:R11" si="1">+N11</f>
-        <v>44.645000000000003</v>
+        <f t="shared" ref="O11:R11" si="2">+N11+5</f>
+        <v>54.645000000000003</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="1"/>
-        <v>44.645000000000003</v>
+        <f t="shared" si="2"/>
+        <v>59.645000000000003</v>
       </c>
       <c r="Q11" s="6">
-        <f t="shared" si="1"/>
-        <v>44.645000000000003</v>
+        <f t="shared" si="2"/>
+        <v>64.64500000000001</v>
       </c>
       <c r="R11" s="6">
-        <f t="shared" si="1"/>
-        <v>44.645000000000003</v>
+        <f t="shared" si="2"/>
+        <v>69.64500000000001</v>
       </c>
       <c r="W11" s="3">
         <v>18.388999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="3">
+        <f t="shared" si="0"/>
+        <v>141.63800000000001</v>
+      </c>
+      <c r="Y11" s="3">
+        <f>SUM(O11:R11)</f>
+        <v>248.58</v>
+      </c>
+      <c r="Z11" s="3">
+        <f>+Y11*1.1</f>
+        <v>273.43800000000005</v>
+      </c>
+      <c r="AA11" s="3">
+        <f>+Z11*1.1</f>
+        <v>300.78180000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
@@ -1180,30 +1493,46 @@
         <v>151.87799999999999</v>
       </c>
       <c r="N12" s="6">
-        <f>+M12</f>
-        <v>151.87799999999999</v>
+        <f>+M12+10</f>
+        <v>161.87799999999999</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" ref="O12:R12" si="2">+N12</f>
-        <v>151.87799999999999</v>
+        <f t="shared" ref="O12:R12" si="3">+N12+10</f>
+        <v>171.87799999999999</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="2"/>
-        <v>151.87799999999999</v>
+        <f t="shared" si="3"/>
+        <v>181.87799999999999</v>
       </c>
       <c r="Q12" s="6">
-        <f t="shared" si="2"/>
-        <v>151.87799999999999</v>
+        <f t="shared" si="3"/>
+        <v>191.87799999999999</v>
       </c>
       <c r="R12" s="6">
-        <f t="shared" si="2"/>
-        <v>151.87799999999999</v>
+        <f t="shared" si="3"/>
+        <v>201.87799999999999</v>
       </c>
       <c r="W12" s="3">
         <v>118.64400000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X12" s="3">
+        <f t="shared" si="0"/>
+        <v>662.71299999999997</v>
+      </c>
+      <c r="Y12" s="3">
+        <f>SUM(O12:R12)</f>
+        <v>747.51199999999994</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" ref="Z12:AA12" si="4">+Y12*1.1</f>
+        <v>822.26319999999998</v>
+      </c>
+      <c r="AA12" s="3">
+        <f t="shared" si="4"/>
+        <v>904.48952000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1217,11 +1546,11 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6">
-        <f t="shared" ref="I13:J13" si="3">+I11+I12</f>
+        <f t="shared" ref="I13:J13" si="5">+I11+I12</f>
         <v>38.182000000000002</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K13" s="6">
@@ -1238,38 +1567,54 @@
       </c>
       <c r="N13" s="6">
         <f>+N11+N12</f>
-        <v>196.523</v>
+        <v>211.523</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" ref="O13:R13" si="4">+O11+O12</f>
-        <v>196.523</v>
+        <f t="shared" ref="O13:R13" si="6">+O11+O12</f>
+        <v>226.523</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="4"/>
-        <v>196.523</v>
+        <f t="shared" si="6"/>
+        <v>241.523</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" si="4"/>
-        <v>196.523</v>
+        <f t="shared" si="6"/>
+        <v>256.52300000000002</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" si="4"/>
-        <v>196.523</v>
+        <f t="shared" si="6"/>
+        <v>271.52300000000002</v>
       </c>
       <c r="U13" s="6">
-        <f t="shared" ref="U13:V13" si="5">+U11+U12</f>
+        <f t="shared" ref="U13:V13" si="7">+U11+U12</f>
         <v>0</v>
       </c>
       <c r="V13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W13" s="6">
         <f>+W11+W12</f>
         <v>137.03300000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="6">
+        <f t="shared" ref="X13:Y13" si="8">+X11+X12</f>
+        <v>804.351</v>
+      </c>
+      <c r="Y13" s="6">
+        <f t="shared" si="8"/>
+        <v>996.09199999999998</v>
+      </c>
+      <c r="Z13" s="6">
+        <f t="shared" ref="Z13" si="9">+Z11+Z12</f>
+        <v>1095.7012</v>
+      </c>
+      <c r="AA13" s="6">
+        <f t="shared" ref="AA13" si="10">+AA11+AA12</f>
+        <v>1205.2713200000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1283,11 +1628,11 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6">
-        <f t="shared" ref="I14:J14" si="6">+I10-I13</f>
+        <f t="shared" ref="I14:J14" si="11">+I10-I13</f>
         <v>117.116</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>806</v>
       </c>
       <c r="K14" s="6">
@@ -1304,39 +1649,54 @@
       </c>
       <c r="N14" s="6">
         <f>+N10-N13</f>
-        <v>763.47699999999998</v>
+        <v>748.47699999999998</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" ref="O14:R14" si="7">+O10-O13</f>
-        <v>1147.4770000000001</v>
+        <f t="shared" ref="O14:R14" si="12">+O10-O13</f>
+        <v>1117.4770000000001</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="7"/>
-        <v>1531.4770000000001</v>
+        <f t="shared" si="12"/>
+        <v>1486.4770000000001</v>
       </c>
       <c r="Q14" s="6">
-        <f t="shared" si="7"/>
-        <v>1915.4770000000001</v>
+        <f t="shared" si="12"/>
+        <v>1772.277</v>
       </c>
       <c r="R14" s="6">
-        <f t="shared" si="7"/>
-        <v>2299.4769999999999</v>
+        <f t="shared" si="12"/>
+        <v>2026.0769999999998</v>
       </c>
       <c r="U14" s="6">
-        <f t="shared" ref="U14:V14" si="8">+U10-U13</f>
+        <f t="shared" ref="U14:V14" si="13">+U10-U13</f>
         <v>15.83</v>
       </c>
       <c r="V14" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>228.94300000000001</v>
       </c>
       <c r="W14" s="6">
         <f>+W10-W13</f>
         <v>324.35800000000006</v>
       </c>
-      <c r="X14" s="11"/>
-    </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="6">
+        <f t="shared" ref="X14:Y14" si="14">+X10-X13</f>
+        <v>792.06599999999992</v>
+      </c>
+      <c r="Y14" s="6">
+        <f t="shared" si="14"/>
+        <v>6402.308</v>
+      </c>
+      <c r="Z14" s="6">
+        <f t="shared" ref="Z14" si="15">+Z10-Z13</f>
+        <v>10001.898800000001</v>
+      </c>
+      <c r="AA14" s="6">
+        <f t="shared" ref="AA14" si="16">+AA10-AA13</f>
+        <v>4204.8086800000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1379,8 +1739,23 @@
       <c r="W15" s="3">
         <v>-360.82400000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="3">
+        <f>SUM(K15:N15)</f>
+        <v>-1151.9110000000001</v>
+      </c>
+      <c r="Y15" s="3">
+        <f>SUM(O15:R15)</f>
+        <v>-1242.22</v>
+      </c>
+      <c r="Z15" s="3">
+        <f>+Y15</f>
+        <v>-1242.22</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1394,11 +1769,11 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6">
-        <f t="shared" ref="I16:J16" si="9">+I14+I15</f>
+        <f t="shared" ref="I16:J16" si="17">+I14+I15</f>
         <v>12.741</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>806</v>
       </c>
       <c r="K16" s="6">
@@ -1415,38 +1790,54 @@
       </c>
       <c r="N16" s="6">
         <f>+N14+N15</f>
-        <v>452.92199999999997</v>
+        <v>437.92199999999997</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" ref="O16:R16" si="10">+O14+O15</f>
-        <v>836.92200000000003</v>
+        <f t="shared" ref="O16:R16" si="18">+O14+O15</f>
+        <v>806.92200000000003</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="10"/>
-        <v>1220.922</v>
+        <f t="shared" si="18"/>
+        <v>1175.922</v>
       </c>
       <c r="Q16" s="6">
-        <f t="shared" si="10"/>
-        <v>1604.922</v>
+        <f t="shared" si="18"/>
+        <v>1461.722</v>
       </c>
       <c r="R16" s="6">
-        <f t="shared" si="10"/>
-        <v>1988.9219999999998</v>
+        <f t="shared" si="18"/>
+        <v>1715.5219999999997</v>
       </c>
       <c r="U16" s="6">
-        <f t="shared" ref="U16:V16" si="11">+U14+U15</f>
+        <f t="shared" ref="U16:V16" si="19">+U14+U15</f>
         <v>15.83</v>
       </c>
       <c r="V16" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>228.94300000000001</v>
       </c>
       <c r="W16" s="6">
         <f>+W14+W15</f>
         <v>-36.465999999999951</v>
       </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="6">
+        <f>+X14+X15</f>
+        <v>-359.84500000000014</v>
+      </c>
+      <c r="Y16" s="6">
+        <f>+Y14+Y15</f>
+        <v>5160.0879999999997</v>
+      </c>
+      <c r="Z16" s="6">
+        <f t="shared" ref="Z16:AA16" si="20">+Z14+Z15</f>
+        <v>8759.6788000000015</v>
+      </c>
+      <c r="AA16" s="6">
+        <f t="shared" si="20"/>
+        <v>4204.8086800000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1483,8 +1874,21 @@
       <c r="R17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <f>+AA16*0.25</f>
+        <v>1051.20217</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,64 +1897,80 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
-        <f t="shared" ref="G18" si="12">+G16-G17</f>
+        <f t="shared" ref="G18" si="21">+G16-G17</f>
         <v>-23.809000000000001</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6">
-        <f>+I16-I17</f>
+        <f t="shared" ref="I18:N18" si="22">+I16-I17</f>
         <v>12.741</v>
       </c>
       <c r="J18" s="6">
-        <f>+J16-J17</f>
+        <f t="shared" si="22"/>
         <v>806</v>
       </c>
       <c r="K18" s="6">
-        <f>+K16-K17</f>
+        <f t="shared" si="22"/>
         <v>-291.30500000000006</v>
       </c>
       <c r="L18" s="6">
-        <f>+L16-L17</f>
+        <f t="shared" si="22"/>
         <v>-247.75699999999992</v>
       </c>
       <c r="M18" s="6">
-        <f>+M16-M17</f>
+        <f t="shared" si="22"/>
         <v>-258.70500000000015</v>
       </c>
       <c r="N18" s="6">
-        <f>+N16-N17</f>
-        <v>452.92199999999997</v>
+        <f t="shared" si="22"/>
+        <v>437.92199999999997</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" ref="O18:R18" si="13">+O16-O17</f>
-        <v>836.92200000000003</v>
+        <f t="shared" ref="O18:R18" si="23">+O16-O17</f>
+        <v>806.92200000000003</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="13"/>
-        <v>1220.922</v>
+        <f t="shared" si="23"/>
+        <v>1175.922</v>
       </c>
       <c r="Q18" s="6">
-        <f t="shared" si="13"/>
-        <v>1604.922</v>
+        <f t="shared" si="23"/>
+        <v>1461.722</v>
       </c>
       <c r="R18" s="6">
-        <f t="shared" si="13"/>
-        <v>1988.9219999999998</v>
+        <f t="shared" si="23"/>
+        <v>1715.5219999999997</v>
       </c>
       <c r="U18" s="6">
-        <f t="shared" ref="U18:V18" si="14">+U16-U17</f>
+        <f t="shared" ref="U18:V18" si="24">+U16-U17</f>
         <v>15.83</v>
       </c>
       <c r="V18" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>228.94300000000001</v>
       </c>
       <c r="W18" s="6">
         <f>+W16-W17</f>
         <v>-36.465999999999951</v>
       </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X18" s="6">
+        <f>+X16-X17</f>
+        <v>-359.84500000000014</v>
+      </c>
+      <c r="Y18" s="6">
+        <f>+Y16-Y17</f>
+        <v>5160.0879999999997</v>
+      </c>
+      <c r="Z18" s="6">
+        <f t="shared" ref="Z18:AA18" si="25">+Z16-Z17</f>
+        <v>8759.6788000000015</v>
+      </c>
+      <c r="AA18" s="6">
+        <f t="shared" si="25"/>
+        <v>3153.6065100000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1560,47 +1980,63 @@
         <v>-0.11379452080983425</v>
       </c>
       <c r="I19" s="9">
-        <f>+I18/I20</f>
+        <f t="shared" ref="I19:N19" si="26">+I18/I20</f>
         <v>5.9591405292648468E-2</v>
       </c>
       <c r="J19" s="9" t="e">
-        <f>+J18/J20</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K19" s="9">
-        <f>+K18/K20</f>
+        <f t="shared" si="26"/>
         <v>-1.168524587533545</v>
       </c>
       <c r="L19" s="9">
-        <f>+L18/L20</f>
+        <f t="shared" si="26"/>
         <v>-0.50916889132762411</v>
       </c>
       <c r="M19" s="9">
-        <f>+M18/M20</f>
+        <f t="shared" si="26"/>
         <v>-0.51960689796459458</v>
       </c>
       <c r="N19" s="9">
-        <f>+N18/N20</f>
-        <v>0.90969017003892449</v>
+        <f t="shared" si="26"/>
+        <v>0.87956279148238747</v>
       </c>
       <c r="O19" s="9">
-        <f t="shared" ref="O19:R19" si="15">+O18/O20</f>
-        <v>1.6809510610862728</v>
+        <f t="shared" ref="O19:R19" si="27">+O18/O20</f>
+        <v>1.6206963039731987</v>
       </c>
       <c r="P19" s="9">
-        <f t="shared" si="15"/>
-        <v>2.452211952133621</v>
+        <f t="shared" si="27"/>
+        <v>2.3618298164640099</v>
       </c>
       <c r="Q19" s="9">
-        <f t="shared" si="15"/>
-        <v>3.2234728431809692</v>
+        <f t="shared" si="27"/>
+        <v>2.9358568025612288</v>
       </c>
       <c r="R19" s="9">
-        <f t="shared" si="15"/>
-        <v>3.9947337342283169</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>3.4456120477378347</v>
+      </c>
+      <c r="X19" s="2">
+        <f>+X18/X20</f>
+        <v>-0.72274576911180499</v>
+      </c>
+      <c r="Y19" s="2">
+        <f>+Y18/Y20</f>
+        <v>10.363994970736272</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" ref="Z19:AA19" si="28">+Z18/Z20</f>
+        <v>17.59374394941814</v>
+      </c>
+      <c r="AA19" s="2">
+        <f t="shared" si="28"/>
+        <v>6.33399314300864</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
@@ -1630,19 +2066,19 @@
         <v>497.88600000000002</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" ref="O20:R20" si="16">+N20</f>
+        <f t="shared" ref="O20:R20" si="29">+N20</f>
         <v>497.88600000000002</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>497.88600000000002</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>497.88600000000002</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>497.88600000000002</v>
       </c>
       <c r="U20" s="3">
@@ -1654,347 +2090,1450 @@
       <c r="W20" s="3">
         <v>217.85400000000001</v>
       </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="X20" s="3">
+        <f>+N20</f>
+        <v>497.88600000000002</v>
+      </c>
+      <c r="Y20" s="3">
+        <f>+X20</f>
+        <v>497.88600000000002</v>
+      </c>
+      <c r="Z20" s="3">
+        <f t="shared" ref="Z20:AA20" si="30">+Y20</f>
+        <v>497.88600000000002</v>
+      </c>
+      <c r="AA20" s="3">
+        <f t="shared" si="30"/>
+        <v>497.88600000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6">
+        <f t="shared" ref="K22:L22" si="31">+K18+K9</f>
+        <v>152.19199999999995</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="31"/>
+        <v>311.72400000000005</v>
+      </c>
+      <c r="M22" s="6">
+        <f>+M18+M9</f>
+        <v>371.77399999999989</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6">
+        <f>+K22+K57</f>
+        <v>336.16499999999996</v>
+      </c>
+      <c r="L23" s="6">
+        <f>+L22+L57</f>
+        <v>456.72900000000004</v>
+      </c>
+      <c r="M23" s="6">
+        <f>+M22+M57</f>
+        <v>516.20499999999993</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="5">
-        <f>+G6/C6-1</f>
+      <c r="G25" s="5">
+        <f t="shared" ref="G25:N25" si="32">+G6/C6-1</f>
         <v>3.9653684210526317</v>
       </c>
-      <c r="H22" s="5">
-        <f>+H6/D6-1</f>
+      <c r="H25" s="5">
+        <f t="shared" si="32"/>
         <v>8.0789473684210531</v>
       </c>
-      <c r="I22" s="5">
-        <f>+I6/E6-1</f>
+      <c r="I25" s="5">
+        <f t="shared" si="32"/>
         <v>14.366868421052633</v>
       </c>
-      <c r="J22" s="5">
-        <f>+J6/F6-1</f>
+      <c r="J25" s="5">
+        <f t="shared" si="32"/>
         <v>6.0393013100436681</v>
       </c>
-      <c r="K22" s="5">
-        <f>+K6/G6-1</f>
+      <c r="K25" s="5">
+        <f t="shared" si="32"/>
         <v>4.2025184965338873</v>
       </c>
-      <c r="L22" s="5">
-        <f>+L6/H6-1</f>
+      <c r="L25" s="5">
+        <f t="shared" si="32"/>
         <v>2.5153275362318839</v>
       </c>
-      <c r="M22" s="5">
-        <f>+M6/I6-1</f>
+      <c r="M25" s="5">
+        <f t="shared" si="32"/>
         <v>1.3370100746479521</v>
       </c>
-      <c r="N22" s="5">
-        <f>+N6/J6-1</f>
+      <c r="N25" s="5">
+        <f t="shared" si="32"/>
         <v>0.86104218362282881</v>
       </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="5">
-        <f>+G10/G6</f>
+      <c r="G26" s="5">
+        <f t="shared" ref="G26:M26" si="33">+G10/G6</f>
         <v>0.19388501409764472</v>
       </c>
-      <c r="H23" s="5">
-        <f>+H10/H6</f>
+      <c r="H26" s="5">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="I23" s="5">
-        <f>+I10/I6</f>
+      <c r="I26" s="5">
+        <f t="shared" si="33"/>
         <v>0.26594810092115467</v>
       </c>
-      <c r="J23" s="5">
-        <f>+J10/J6</f>
+      <c r="J26" s="5">
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="K23" s="5">
-        <f>+K10/K6</f>
+      <c r="K26" s="5">
+        <f t="shared" si="33"/>
         <v>0.16078937931933751</v>
       </c>
-      <c r="L23" s="5">
-        <f>+L10/L6</f>
+      <c r="L26" s="5">
+        <f t="shared" si="33"/>
         <v>0.18981718156841929</v>
       </c>
-      <c r="M23" s="5">
-        <f>+M10/M6</f>
+      <c r="M26" s="5">
+        <f t="shared" si="33"/>
         <v>0.18200144210054242</v>
       </c>
-      <c r="N23" s="5">
-        <f t="shared" ref="N23" si="17">+N10/N6</f>
+      <c r="N26" s="5">
+        <f t="shared" ref="N26" si="34">+N10/N6</f>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="W26" s="5">
+        <f t="shared" ref="W26" si="35">+W10/W6</f>
+        <v>0.24088166287812743</v>
+      </c>
+      <c r="X26" s="5">
+        <f>+X10/X6</f>
+        <v>0.31555380645079678</v>
+      </c>
+      <c r="Y26" s="5">
+        <f>+Y10/Y6</f>
+        <v>0.64</v>
+      </c>
+      <c r="Z26" s="5">
+        <f t="shared" ref="Z26:AA26" si="36">+Z10/Z6</f>
+        <v>0.64</v>
+      </c>
+      <c r="AA26" s="5">
+        <f t="shared" si="36"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="5">
+      <c r="K27" s="5">
+        <f t="shared" ref="K27:L27" si="37">(K9+K10)/K6</f>
+        <v>0.61258496055548295</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="37"/>
+        <v>0.65113523550694774</v>
+      </c>
+      <c r="M27" s="5">
         <f>(M9+M10)/M6</f>
         <v>0.64400048070018079</v>
       </c>
-      <c r="N24" s="5">
-        <f t="shared" ref="N24" si="18">(N9+N10)/N6</f>
+      <c r="N27" s="5">
+        <f t="shared" ref="N27" si="38">(N9+N10)/N6</f>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="W27" s="5">
+        <f t="shared" ref="W27" si="39">(W9+W10)/W6</f>
+        <v>0.24088166287812743</v>
+      </c>
+      <c r="X27" s="5">
+        <f>(X9+X10)/X6</f>
+        <v>0.63842907902913881</v>
+      </c>
+      <c r="Y27" s="5">
+        <f>(Y9+Y10)/Y6</f>
+        <v>0.64</v>
+      </c>
+      <c r="Z27" s="5">
+        <f t="shared" ref="Z27:AA27" si="40">(Z9+Z10)/Z6</f>
+        <v>0.64</v>
+      </c>
+      <c r="AA27" s="5">
+        <f t="shared" si="40"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="6">
+      <c r="K30" s="6">
+        <f>1276.456+624.25+617.11</f>
+        <v>2517.8159999999998</v>
+      </c>
+      <c r="L30" s="6">
+        <f>1152.883+560.173+340.527</f>
+        <v>2053.5830000000001</v>
+      </c>
+      <c r="M30" s="6">
         <f>1894.399+596.777+47.449+477.515</f>
         <v>3016.14</v>
       </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="N30" s="6">
+        <f>+M30+N18</f>
+        <v>3454.0619999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M27" s="6">
+      <c r="K31" s="6">
+        <v>1055.2080000000001</v>
+      </c>
+      <c r="L31" s="6">
+        <v>1933.6980000000001</v>
+      </c>
+      <c r="M31" s="6">
         <v>1659.229</v>
       </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="N31" s="6">
+        <f>+M31</f>
+        <v>1659.229</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M28" s="6">
+      <c r="K32" s="6">
+        <v>146.733</v>
+      </c>
+      <c r="L32" s="6">
+        <v>299.22899999999998</v>
+      </c>
+      <c r="M32" s="6">
         <v>533.42899999999997</v>
       </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="N32" s="6">
+        <f>+M32</f>
+        <v>533.42899999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M29" s="6">
+      <c r="K33" s="6">
+        <v>14210.992</v>
+      </c>
+      <c r="L33" s="6">
+        <v>16631.509999999998</v>
+      </c>
+      <c r="M33" s="6">
         <v>20659.181</v>
       </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="N33" s="6">
+        <f t="shared" ref="N33:N36" si="41">+M33</f>
+        <v>20659.181</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M30" s="6">
+      <c r="K34" s="6">
+        <v>3063.22</v>
+      </c>
+      <c r="L34" s="6">
+        <v>3380.201</v>
+      </c>
+      <c r="M34" s="6">
         <v>4677.0569999999998</v>
       </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="N34" s="6">
+        <f t="shared" si="41"/>
+        <v>4677.0569999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M31" s="6">
+      <c r="K35" s="6">
+        <f>4.395+19.544</f>
+        <v>23.939</v>
+      </c>
+      <c r="L35" s="6">
+        <f>205.895+812.97</f>
+        <v>1018.865</v>
+      </c>
+      <c r="M35" s="6">
         <f>829.979+200.001</f>
         <v>1029.98</v>
       </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="N35" s="6">
+        <f t="shared" si="41"/>
+        <v>1029.98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M32" s="6">
+      <c r="K36" s="6">
+        <v>842.47500000000002</v>
+      </c>
+      <c r="L36" s="6">
+        <v>924.27700000000004</v>
+      </c>
+      <c r="M36" s="6">
         <v>1335.482</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="N36" s="6">
+        <f t="shared" si="41"/>
+        <v>1335.482</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M33" s="6">
-        <f>SUM(M26:M32)</f>
+      <c r="K37" s="6">
+        <f>SUM(K30:K36)</f>
+        <v>21860.382999999998</v>
+      </c>
+      <c r="L37" s="6">
+        <f>SUM(L30:L36)</f>
+        <v>26241.362999999998</v>
+      </c>
+      <c r="M37" s="6">
+        <f>SUM(M30:M36)</f>
         <v>32910.498</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+      <c r="N37" s="6">
+        <f>SUM(N30:N36)</f>
+        <v>33348.42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M35" s="6">
+      <c r="K39" s="6">
+        <v>1242.0999999999999</v>
+      </c>
+      <c r="L39" s="6">
+        <v>1226.579</v>
+      </c>
+      <c r="M39" s="6">
         <v>1156.9780000000001</v>
       </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="N39" s="6">
+        <f>+M39</f>
+        <v>1156.9780000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M36" s="6">
+      <c r="K40" s="6">
+        <v>1377.0129999999999</v>
+      </c>
+      <c r="L40" s="6">
+        <v>1411.2370000000001</v>
+      </c>
+      <c r="M40" s="6">
         <v>3172.2739999999999</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="N40" s="6">
+        <f>+M40</f>
+        <v>3172.2739999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M37" s="6">
+      <c r="K41" s="6">
+        <f>3776.595+4935.071</f>
+        <v>8711.6659999999993</v>
+      </c>
+      <c r="L41" s="6">
+        <f>3627.664+7423.837</f>
+        <v>11051.501</v>
+      </c>
+      <c r="M41" s="6">
         <f>3712.177+10322.757</f>
         <v>14034.933999999999</v>
       </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+      <c r="N41" s="6">
+        <f t="shared" ref="N41:N47" si="42">+M41</f>
+        <v>14034.933999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M38" s="6">
+      <c r="K42" s="6">
+        <f>436.53+3611.469</f>
+        <v>4047.9989999999998</v>
+      </c>
+      <c r="L42" s="6">
+        <f>951.346+3896.173</f>
+        <v>4847.5190000000002</v>
+      </c>
+      <c r="M42" s="6">
         <f>1107.58+4228.222</f>
         <v>5335.8019999999997</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+      <c r="N42" s="6">
+        <f t="shared" si="42"/>
+        <v>5335.8019999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="6">
+      <c r="K43" s="6">
+        <f>239.549+2867.838+18.814+59.01</f>
+        <v>3185.2110000000002</v>
+      </c>
+      <c r="L43" s="6">
+        <f>279.08+3168.392+60.396+3.112</f>
+        <v>3510.98</v>
+      </c>
+      <c r="M43" s="6">
         <f>345.472+48.99+4378.869+0.012</f>
         <v>4773.3429999999998</v>
       </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="N43" s="6">
+        <f t="shared" si="42"/>
+        <v>4773.3429999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M40" s="6">
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M44" s="6">
         <v>171.40100000000001</v>
       </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="N44" s="6">
+        <f t="shared" si="42"/>
+        <v>171.40100000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M41" s="6">
+      <c r="K45" s="6">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="M45" s="6">
         <v>1.71</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="N45" s="6">
+        <f t="shared" si="42"/>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M42" s="6">
+      <c r="K46" s="6">
+        <v>193.84899999999999</v>
+      </c>
+      <c r="L46" s="6">
+        <v>245.65899999999999</v>
+      </c>
+      <c r="M46" s="6">
         <v>117.633</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="N46" s="6">
+        <f t="shared" si="42"/>
+        <v>117.633</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="6">
+      <c r="K47" s="6">
+        <v>32.771999999999998</v>
+      </c>
+      <c r="L47" s="6">
+        <v>126.331</v>
+      </c>
+      <c r="M47" s="6">
         <v>268.40899999999999</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+      <c r="N47" s="6">
+        <f t="shared" si="42"/>
+        <v>268.40899999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M44" s="6">
+      <c r="K48" s="6">
+        <f>1163.159+1906.123</f>
+        <v>3069.2820000000002</v>
+      </c>
+      <c r="L48" s="6">
+        <f>2657.647+1163.159</f>
+        <v>3820.806</v>
+      </c>
+      <c r="M48" s="6">
         <v>3878.0140000000001</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+      <c r="N48" s="6">
+        <f>+M48+438</f>
+        <v>4316.0140000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M45" s="6">
-        <f t="array" ref="M45">SUM(M35:M44)</f>
+      <c r="K49" s="6">
+        <f t="array" ref="K49">SUM(K39:K48)</f>
+        <v>21860.382999999998</v>
+      </c>
+      <c r="L49" s="6">
+        <f t="array" ref="L49">SUM(L39:L48)</f>
+        <v>26241.362999999998</v>
+      </c>
+      <c r="M49" s="6">
+        <f t="array" ref="M49">SUM(M39:M48)</f>
         <v>32910.498000000007</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="N49" s="6">
+        <f t="array" ref="N49">SUM(N39:N48)</f>
+        <v>33348.498000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51" s="6">
+        <f>K18</f>
+        <v>-291.30500000000006</v>
+      </c>
+      <c r="L51" s="6">
+        <f>L18</f>
+        <v>-247.75699999999992</v>
+      </c>
+      <c r="M51" s="6">
+        <f>M18</f>
+        <v>-258.70500000000015</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K52" s="6">
+        <v>-314.64100000000002</v>
+      </c>
+      <c r="L52" s="6">
+        <f>-605.15-K52</f>
+        <v>-290.50899999999996</v>
+      </c>
+      <c r="M52" s="6">
+        <f>-715.274-L52-K52</f>
+        <v>-110.12400000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K53" s="6">
+        <v>443.49700000000001</v>
+      </c>
+      <c r="L53" s="6">
+        <f>1002.978-K53</f>
+        <v>559.48099999999999</v>
+      </c>
+      <c r="M53" s="6">
+        <f>1633.457-L53-K53</f>
+        <v>630.47900000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K54" s="6">
+        <v>66.869</v>
+      </c>
+      <c r="L54" s="6">
+        <f>144.113-K54</f>
+        <v>77.244</v>
+      </c>
+      <c r="M54" s="6">
+        <f>233.836-L54-K54</f>
+        <v>89.723000000000013</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K55" s="6">
+        <v>37.691000000000003</v>
+      </c>
+      <c r="L55" s="6">
+        <f>66.727-K55</f>
+        <v>29.036000000000001</v>
+      </c>
+      <c r="M55" s="6">
+        <f>87.776-L55-K55</f>
+        <v>21.048999999999992</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K56" s="6">
+        <v>-26.837</v>
+      </c>
+      <c r="L56" s="6">
+        <f>-26.837-K56</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="6">
+        <f>-26.837-L56-K56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K57" s="6">
+        <v>183.97300000000001</v>
+      </c>
+      <c r="L57" s="6">
+        <f>328.978-K57</f>
+        <v>145.005</v>
+      </c>
+      <c r="M57" s="6">
+        <f>473.409-L57-K57</f>
+        <v>144.43099999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K58" s="6">
+        <v>44.616999999999997</v>
+      </c>
+      <c r="L58" s="6">
+        <f>90.884-K58</f>
+        <v>46.267000000000003</v>
+      </c>
+      <c r="M58" s="6">
+        <f>-37.141-L58-K58</f>
+        <v>-128.02500000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K59" s="6">
+        <v>22.722999999999999</v>
+      </c>
+      <c r="L59" s="6">
+        <f>40.132-K59</f>
+        <v>17.408999999999999</v>
+      </c>
+      <c r="M59" s="6">
+        <f>49.388+14.486-L59-K59</f>
+        <v>23.741999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K60" s="6">
+        <v>-638.75</v>
+      </c>
+      <c r="L60" s="6">
+        <f>-1504.696-K60</f>
+        <v>-865.94599999999991</v>
+      </c>
+      <c r="M60" s="6">
+        <f>-1252.507-L60-K60</f>
+        <v>252.18899999999985</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K61" s="6">
+        <v>-9.9290000000000003</v>
+      </c>
+      <c r="L61" s="6">
+        <f>-120.448-K61</f>
+        <v>-110.51899999999999</v>
+      </c>
+      <c r="M61" s="6">
+        <f>-171.034-L61-K61</f>
+        <v>-50.585999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" ht="13" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K62" s="6">
+        <v>62.326999999999998</v>
+      </c>
+      <c r="L62" s="6">
+        <f>-289.173-K62</f>
+        <v>-351.5</v>
+      </c>
+      <c r="M62" s="8">
+        <f>333.211-L62-K62</f>
+        <v>622.38400000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" ht="13" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K63" s="6">
+        <v>-15.904</v>
+      </c>
+      <c r="L63" s="6">
+        <f>742.892-K63</f>
+        <v>758.79600000000005</v>
+      </c>
+      <c r="M63" s="8">
+        <f>1402.164-L63-K63</f>
+        <v>659.27199999999993</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K64" s="6">
+        <v>-51.109000000000002</v>
+      </c>
+      <c r="L64" s="6">
+        <f>-110.451-K64</f>
+        <v>-59.341999999999992</v>
+      </c>
+      <c r="M64" s="6">
+        <f>-181.061-L64-K64</f>
+        <v>-70.610000000000014</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K65" s="6">
+        <v>256.64100000000002</v>
+      </c>
+      <c r="L65" s="6">
+        <f>49.968-K65</f>
+        <v>-206.673</v>
+      </c>
+      <c r="M65" s="6">
+        <f>-344.822-L65-K65</f>
+        <v>-394.79</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6">
+      <c r="K66" s="6">
+        <f>SUM(K52:K65)</f>
+        <v>61.168000000000063</v>
+      </c>
+      <c r="L66" s="6">
+        <f>SUM(L52:L65)</f>
+        <v>-251.25099999999975</v>
+      </c>
+      <c r="M66" s="8">
+        <f>SUM(M52:M65)</f>
+        <v>1689.1339999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K68" s="6">
+        <v>-1407.3589999999999</v>
+      </c>
+      <c r="L68" s="6">
+        <f>-3860.351-K68</f>
+        <v>-2452.9920000000002</v>
+      </c>
+      <c r="M68" s="6">
+        <f>-6249.239-L68-K68</f>
+        <v>-2388.8879999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K69" s="6">
+        <f>29.308-55</f>
+        <v>-25.692</v>
+      </c>
+      <c r="L69" s="6">
+        <f>29.308-K69+100.645-73-26.109</f>
+        <v>56.53599999999998</v>
+      </c>
+      <c r="M69" s="6">
+        <f>29.308-47.246-L69-K69-73-49.849</f>
+        <v>-171.63099999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K70" s="6">
+        <v>0</v>
+      </c>
+      <c r="L70" s="6">
+        <f>-45.706-K70</f>
+        <v>-45.706000000000003</v>
+      </c>
+      <c r="M70" s="6">
+        <f>100.645-55.918-L70-K70</f>
+        <v>90.432999999999993</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K71" s="6">
+        <f>K69+K68+K70</f>
+        <v>-1433.0509999999999</v>
+      </c>
+      <c r="L71" s="6">
+        <f>L69+L68+L70</f>
+        <v>-2442.1620000000003</v>
+      </c>
+      <c r="M71" s="6">
+        <f>M69+M68+M70</f>
+        <v>-2470.0859999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K73" s="6">
+        <f>784.956-271.104</f>
+        <v>513.85200000000009</v>
+      </c>
+      <c r="L73" s="6">
+        <f>4432.723-1574.867-36.536-K73</f>
+        <v>2307.4679999999998</v>
+      </c>
+      <c r="M73" s="6">
+        <f>7562.686-2978.85-46.086-L73-K73</f>
+        <v>1716.4299999999992</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K74" s="6">
+        <v>-26.100999999999999</v>
+      </c>
+      <c r="L74" s="6">
+        <f>-28.693-K74</f>
+        <v>-2.5920000000000023</v>
+      </c>
+      <c r="M74" s="6">
+        <f>-28.693-L74-K74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K75" s="6">
+        <f>2.794-15.685</f>
+        <v>-12.891</v>
+      </c>
+      <c r="L75" s="6">
+        <f>4.538-K75-132.558</f>
+        <v>-115.12899999999999</v>
+      </c>
+      <c r="M75" s="6">
+        <f>17.519-L75-K75-144.043</f>
+        <v>1.4959999999999809</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K76" s="6">
+        <f>1422.619-16.87</f>
+        <v>1405.749</v>
+      </c>
+      <c r="L76" s="6">
+        <f>1422.619+67.669-K76-27.763</f>
+        <v>56.775999999999982</v>
+      </c>
+      <c r="M76" s="6">
+        <f>1422.619+67.669-L76-K76-28.769</f>
+        <v>-1.0060000000000784</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K77" s="6">
+        <v>-26.742999999999999</v>
+      </c>
+      <c r="L77" s="6">
+        <f>-44.086-K77</f>
+        <v>-17.343</v>
+      </c>
+      <c r="M77" s="6">
+        <f>-64.946-L77-K77</f>
+        <v>-20.859999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K78" s="6">
+        <f>SUM(K73:K77)</f>
+        <v>1853.8660000000002</v>
+      </c>
+      <c r="L78" s="6">
+        <f>SUM(L73:L77)</f>
+        <v>2229.1799999999998</v>
+      </c>
+      <c r="M78" s="6">
+        <f>SUM(M73:M77)</f>
+        <v>1696.059999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K79" s="6">
+        <f>+K78+K71+K66</f>
+        <v>481.98300000000035</v>
+      </c>
+      <c r="L79" s="6">
+        <f>+L78+L71+L66</f>
+        <v>-464.23300000000017</v>
+      </c>
+      <c r="M79" s="6">
+        <f>+M78+M71+M66</f>
+        <v>915.10799999999927</v>
+      </c>
+    </row>
+    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6">
         <v>2039.038</v>
       </c>
-      <c r="H47" s="6">
-        <f>191.214-G47</f>
+      <c r="H81" s="6">
+        <f>191.214-G81</f>
         <v>-1847.8240000000001</v>
       </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6">
-        <v>61.167999999999999</v>
-      </c>
-      <c r="L47" s="6">
-        <v>-251.251</v>
-      </c>
-      <c r="M47" s="6">
-        <v>1689.134</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+    </row>
+    <row r="82" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6">
         <v>-1741.9349999999999</v>
       </c>
-      <c r="H48" s="6">
-        <f>-3989.096-G48</f>
+      <c r="H82" s="6">
+        <f>-3989.096-G82</f>
         <v>-2247.1610000000001</v>
       </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6">
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6">
+        <f t="shared" ref="K82:L82" si="43">+K68</f>
         <v>-1407.3589999999999</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L82" s="6">
+        <f t="shared" si="43"/>
         <v>-2452.9920000000002</v>
       </c>
-      <c r="M48" s="6">
-        <v>-3278.7860000000001</v>
-      </c>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+      <c r="M82" s="6">
+        <f>+M68</f>
+        <v>-2388.8879999999995</v>
+      </c>
+      <c r="N82" s="6">
+        <f>+M82</f>
+        <v>-2388.8879999999995</v>
+      </c>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="X82" s="3">
+        <f>SUM(K82:N82)</f>
+        <v>-8638.1269999999986</v>
+      </c>
+      <c r="Y82" s="3">
+        <f>+X82</f>
+        <v>-8638.1269999999986</v>
+      </c>
+      <c r="Z82" s="3">
+        <f>+Y82</f>
+        <v>-8638.1269999999986</v>
+      </c>
+      <c r="AA82" s="3">
+        <f>+Z82</f>
+        <v>-8638.1269999999986</v>
+      </c>
+    </row>
+    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="G49" s="6">
-        <f>+G47+G48</f>
+      <c r="C83" s="6"/>
+      <c r="G83" s="6">
+        <f>+G81+G82</f>
         <v>297.10300000000007</v>
       </c>
-      <c r="H49" s="6">
-        <f>+H47+H48</f>
+      <c r="H83" s="6">
+        <f>+H81+H82</f>
         <v>-4094.9850000000001</v>
       </c>
-      <c r="K49" s="6">
-        <f>+K47+K48</f>
-        <v>-1346.191</v>
-      </c>
-      <c r="L49" s="6">
-        <f>+L47+L48</f>
-        <v>-2704.2430000000004</v>
-      </c>
-      <c r="M49" s="6">
-        <f>+M47+M48</f>
-        <v>-1589.652</v>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+    </row>
+    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y85" s="3">
+        <f>+Y86-X86</f>
+        <v>-3478.038999999997</v>
+      </c>
+      <c r="Z85" s="3">
+        <f>+Z86-Y86</f>
+        <v>8759.6787999999997</v>
+      </c>
+      <c r="AA85" s="3">
+        <f>+AA86-Z86</f>
+        <v>3153.6065100000014</v>
+      </c>
+    </row>
+    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X86" s="3">
+        <f>+X87-X99</f>
+        <v>-10751.54</v>
+      </c>
+      <c r="Y86" s="3">
+        <f>+Y87-Y99+Y82</f>
+        <v>-14229.578999999998</v>
+      </c>
+      <c r="Z86" s="3">
+        <f>+Z87-Z99+Z82</f>
+        <v>-5469.9001999999982</v>
+      </c>
+      <c r="AA86" s="3">
+        <f>+AA87-AA99+AA82</f>
+        <v>-2316.2936899999968</v>
+      </c>
+    </row>
+    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N87" s="6">
+        <f>+N30</f>
+        <v>3454.0619999999999</v>
+      </c>
+      <c r="X87" s="3">
+        <f>+N87</f>
+        <v>3454.0619999999999</v>
+      </c>
+      <c r="Y87" s="3">
+        <f>+X87+Y18-X97</f>
+        <v>7428.4409999999998</v>
+      </c>
+      <c r="Z87" s="3">
+        <f>+Y87+Z18</f>
+        <v>16188.1198</v>
+      </c>
+      <c r="AA87" s="3">
+        <f>+Z87+AA18-Z96-Z92</f>
+        <v>16974.226310000002</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M89" s="4">
+        <v>265</v>
+      </c>
+      <c r="X89" s="3">
+        <f>+M89</f>
+        <v>265</v>
+      </c>
+      <c r="Y89" s="3">
+        <f>+X89</f>
+        <v>265</v>
+      </c>
+      <c r="Z89" s="3">
+        <f>+Y89</f>
+        <v>265</v>
+      </c>
+      <c r="AA89" s="3">
+        <f t="shared" ref="AA89:AA90" si="44">+Z89</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M90" s="6">
+        <v>2000</v>
+      </c>
+      <c r="X90" s="3">
+        <f t="shared" ref="X90:X97" si="45">+M90</f>
+        <v>2000</v>
+      </c>
+      <c r="Y90" s="3">
+        <f>+X90</f>
+        <v>2000</v>
+      </c>
+      <c r="Z90" s="3">
+        <f>+Y90</f>
+        <v>2000</v>
+      </c>
+      <c r="AA90" s="3">
+        <f t="shared" si="44"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M91" s="6">
+        <v>1750</v>
+      </c>
+      <c r="X91" s="3">
+        <f t="shared" si="45"/>
+        <v>1750</v>
+      </c>
+      <c r="Y91" s="3">
+        <f t="shared" ref="Y91:Y96" si="46">+X91</f>
+        <v>1750</v>
+      </c>
+      <c r="Z91" s="3">
+        <f t="shared" ref="Z91:AA97" si="47">+Y91</f>
+        <v>1750</v>
+      </c>
+      <c r="AA91" s="3">
+        <f t="shared" si="47"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M92" s="6">
+        <v>1667.5</v>
+      </c>
+      <c r="X92" s="3">
+        <f t="shared" si="45"/>
+        <v>1667.5</v>
+      </c>
+      <c r="Y92" s="3">
+        <f t="shared" si="46"/>
+        <v>1667.5</v>
+      </c>
+      <c r="Z92" s="3">
+        <f t="shared" si="47"/>
+        <v>1667.5</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M93" s="6">
+        <v>5037.3720000000003</v>
+      </c>
+      <c r="X93" s="3">
+        <f t="shared" si="45"/>
+        <v>5037.3720000000003</v>
+      </c>
+      <c r="Y93" s="3">
+        <f t="shared" si="46"/>
+        <v>5037.3720000000003</v>
+      </c>
+      <c r="Z93" s="3">
+        <f t="shared" si="47"/>
+        <v>5037.3720000000003</v>
+      </c>
+      <c r="AA93" s="3">
+        <f t="shared" si="47"/>
+        <v>5037.3720000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M94" s="6">
+        <v>1241.325</v>
+      </c>
+      <c r="X94" s="3">
+        <f t="shared" si="45"/>
+        <v>1241.325</v>
+      </c>
+      <c r="Y94" s="3">
+        <f t="shared" si="46"/>
+        <v>1241.325</v>
+      </c>
+      <c r="Z94" s="3">
+        <f t="shared" si="47"/>
+        <v>1241.325</v>
+      </c>
+      <c r="AA94" s="3">
+        <f t="shared" si="47"/>
+        <v>1241.325</v>
+      </c>
+    </row>
+    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M95" s="6">
+        <v>358.69600000000003</v>
+      </c>
+      <c r="X95" s="3">
+        <f t="shared" si="45"/>
+        <v>358.69600000000003</v>
+      </c>
+      <c r="Y95" s="3">
+        <f t="shared" si="46"/>
+        <v>358.69600000000003</v>
+      </c>
+      <c r="Z95" s="3">
+        <f t="shared" si="47"/>
+        <v>358.69600000000003</v>
+      </c>
+      <c r="AA95" s="3">
+        <f t="shared" si="47"/>
+        <v>358.69600000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M96" s="6">
+        <v>700</v>
+      </c>
+      <c r="X96" s="3">
+        <f t="shared" si="45"/>
+        <v>700</v>
+      </c>
+      <c r="Y96" s="3">
+        <f t="shared" si="46"/>
+        <v>700</v>
+      </c>
+      <c r="Z96" s="3">
+        <f t="shared" si="47"/>
+        <v>700</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M97" s="6">
+        <v>1185.7090000000001</v>
+      </c>
+      <c r="X97" s="3">
+        <f t="shared" si="45"/>
+        <v>1185.7090000000001</v>
+      </c>
+      <c r="Y97" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="X99" s="3">
+        <f>SUM(X89:X97)</f>
+        <v>14205.602000000001</v>
+      </c>
+      <c r="Y99" s="3">
+        <f>SUM(Y89:Y97)</f>
+        <v>13019.893</v>
+      </c>
+      <c r="Z99" s="3">
+        <f>SUM(Z89:Z97)</f>
+        <v>13019.893</v>
+      </c>
+      <c r="AA99" s="3">
+        <f t="shared" ref="AA99" si="48">SUM(AA89:AA97)</f>
+        <v>10652.393</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>